--- a/Предметы.xlsx
+++ b/Предметы.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Qt projects\RPG_Clicker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Chest Clicker RPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BF6B01-4A59-48B2-AE3B-3930538AE3FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6478854D-08E7-4957-AD53-E0E189F766A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4128" yWindow="2136" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Редкость" sheetId="1" r:id="rId1"/>
@@ -23,18 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="115">
   <si>
     <t>Эпический</t>
   </si>
@@ -228,9 +222,6 @@
     <t>Атрибут</t>
   </si>
   <si>
-    <t>Базы:</t>
-  </si>
-  <si>
     <t>Лук</t>
   </si>
   <si>
@@ -267,9 +258,6 @@
     <t>Амулет</t>
   </si>
   <si>
-    <t>Сет: 9-10</t>
-  </si>
-  <si>
     <t>База</t>
   </si>
   <si>
@@ -378,7 +366,13 @@
     <t>Поножи, сапоги, шлем</t>
   </si>
   <si>
-    <t>х2</t>
+    <t>Левая рука</t>
+  </si>
+  <si>
+    <t>Правая рука</t>
+  </si>
+  <si>
+    <t>Аксессуар</t>
   </si>
 </sst>
 </file>
@@ -420,7 +414,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,6 +517,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -588,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -611,7 +611,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -677,20 +676,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -698,6 +694,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -994,24 +993,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A3:K24"/>
+  <dimension ref="A3:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1028,193 +1032,145 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="6">
         <v>0</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>33</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="30">
+        <v>68</v>
+      </c>
+      <c r="D5" s="29">
         <v>0.65</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="29">
         <v>0.2</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="29">
         <v>0.1</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="30">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="30">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="30">
         <f>SUM(D5:H5)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H12" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H13" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="39"/>
+      <c r="J13" s="31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H14" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>28</v>
-      </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I19" s="8"/>
-      <c r="J19" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I20" s="8"/>
-      <c r="J20" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I21" s="8"/>
-      <c r="J21" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I22" s="8"/>
-      <c r="J22" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I23" s="8"/>
-      <c r="J23" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="K23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I24" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="J24" s="32" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1228,568 +1184,568 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-    </row>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-    </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+    </row>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="40"/>
-    </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
-      <c r="C4" s="21">
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38"/>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B4" s="8"/>
+      <c r="C4" s="20">
         <v>1</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <v>2</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <v>3</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="23">
         <v>4</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="24">
         <v>5</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="25">
         <v>6</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="26">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="37" t="s">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B14" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9">
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8">
         <v>1</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>2</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>3</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>4</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <v>5</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <v>6</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="10">
         <v>7</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="8">
         <v>8</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="8">
         <v>9</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="10">
         <v>10</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="8">
         <v>11</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N17" s="8">
         <v>12</v>
       </c>
-      <c r="O17" s="11">
+      <c r="O17" s="10">
         <v>13</v>
       </c>
-      <c r="P17" s="9">
+      <c r="P17" s="8">
         <v>14</v>
       </c>
-      <c r="Q17" s="9">
+      <c r="Q17" s="8">
         <v>15</v>
       </c>
-      <c r="R17" s="11">
+      <c r="R17" s="10">
         <v>16</v>
       </c>
-      <c r="S17" s="9">
+      <c r="S17" s="8">
         <v>17</v>
       </c>
-      <c r="T17" s="9">
+      <c r="T17" s="8">
         <v>18</v>
       </c>
-      <c r="U17" s="11">
+      <c r="U17" s="10">
         <v>19</v>
       </c>
-      <c r="V17" s="9">
+      <c r="V17" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B18" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="I18" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="J18" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="K18" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="L18" s="18" t="s">
+      <c r="L18" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M18" s="18" t="s">
+      <c r="M18" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="N18" s="19" t="s">
+      <c r="N18" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="O18" s="19" t="s">
+      <c r="O18" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="P18" s="19" t="s">
+      <c r="P18" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="Q18" s="19" t="s">
+      <c r="Q18" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="R18" s="20" t="s">
+      <c r="R18" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="S18" s="20" t="s">
+      <c r="S18" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="T18" s="20" t="s">
+      <c r="T18" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="U18" s="20" t="s">
+      <c r="U18" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="V18" s="20" t="s">
+      <c r="V18" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B22" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="16">
         <v>1</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="16">
         <v>1</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="16">
         <v>1</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="16">
         <v>1</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="16">
         <v>1</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="15">
         <v>2</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I22" s="15">
         <v>2</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J22" s="15">
         <v>2</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K22" s="15">
         <v>2</v>
       </c>
-      <c r="L22" s="16">
+      <c r="L22" s="15">
         <v>2</v>
       </c>
-      <c r="M22" s="18">
+      <c r="M22" s="17">
         <v>3</v>
       </c>
-      <c r="N22" s="18">
+      <c r="N22" s="17">
         <v>3</v>
       </c>
-      <c r="O22" s="18">
+      <c r="O22" s="17">
         <v>3</v>
       </c>
-      <c r="P22" s="18">
+      <c r="P22" s="17">
         <v>3</v>
       </c>
-      <c r="Q22" s="18">
+      <c r="Q22" s="17">
         <v>3</v>
       </c>
-      <c r="R22" s="19">
+      <c r="R22" s="18">
         <v>4</v>
       </c>
-      <c r="S22" s="19">
+      <c r="S22" s="18">
         <v>4</v>
       </c>
-      <c r="T22" s="19">
+      <c r="T22" s="18">
         <v>4</v>
       </c>
-      <c r="U22" s="19">
+      <c r="U22" s="18">
         <v>4</v>
       </c>
-      <c r="V22" s="19">
+      <c r="V22" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="16">
         <v>1</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="16">
         <v>1</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="16">
         <v>1</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="16">
         <v>1</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="16">
         <v>1</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H23" s="15">
         <v>2</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I23" s="15">
         <v>2</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J23" s="15">
         <v>2</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K23" s="15">
         <v>2</v>
       </c>
-      <c r="L23" s="16">
+      <c r="L23" s="15">
         <v>2</v>
       </c>
-      <c r="M23" s="18">
+      <c r="M23" s="17">
         <v>3</v>
       </c>
-      <c r="N23" s="18">
+      <c r="N23" s="17">
         <v>3</v>
       </c>
-      <c r="O23" s="18">
+      <c r="O23" s="17">
         <v>3</v>
       </c>
-      <c r="P23" s="18">
+      <c r="P23" s="17">
         <v>3</v>
       </c>
-      <c r="Q23" s="18">
+      <c r="Q23" s="17">
         <v>3</v>
       </c>
-      <c r="R23" s="19">
+      <c r="R23" s="18">
         <v>4</v>
       </c>
-      <c r="S23" s="19">
+      <c r="S23" s="18">
         <v>4</v>
       </c>
-      <c r="T23" s="19">
+      <c r="T23" s="18">
         <v>4</v>
       </c>
-      <c r="U23" s="19">
+      <c r="U23" s="18">
         <v>4</v>
       </c>
-      <c r="V23" s="19">
+      <c r="V23" s="18">
         <v>4</v>
       </c>
     </row>
@@ -1814,323 +1770,323 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" s="13" t="s">
+      <c r="C15" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="31" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="32" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="E16" s="31" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="E16" s="32" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="9"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="9"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="9"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="9"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="9"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="9"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2143,226 +2099,226 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="35" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="D3" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="28" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="27" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Предметы.xlsx
+++ b/Предметы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Chest Clicker RPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6478854D-08E7-4957-AD53-E0E189F766A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A9C9C8-FE6A-4D30-8A84-BC736AEAC705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4128" yWindow="2136" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28575" yWindow="1740" windowWidth="23040" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Редкость" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -517,12 +517,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -588,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -694,9 +688,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -996,7 +987,7 @@
   <dimension ref="A3:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1088,9 +1079,6 @@
       <c r="I11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="31" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1119,7 +1107,9 @@
       <c r="H13" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="I13" s="39"/>
+      <c r="I13" s="31" t="s">
+        <v>75</v>
+      </c>
       <c r="J13" s="31" t="s">
         <v>74</v>
       </c>

--- a/Предметы.xlsx
+++ b/Предметы.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Chest Clicker RPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A9C9C8-FE6A-4D30-8A84-BC736AEAC705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AE7A35-039D-4781-87B1-02A929B92FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28575" yWindow="1740" windowWidth="23040" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2808" yWindow="3036" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Редкость" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="126">
   <si>
     <t>Эпический</t>
   </si>
@@ -373,18 +381,175 @@
   </si>
   <si>
     <t>Аксессуар</t>
+  </si>
+  <si>
+    <t>Героический</t>
+  </si>
+  <si>
+    <t>Легендарный</t>
+  </si>
+  <si>
+    <t>предметы</t>
+  </si>
+  <si>
+    <t>свойства</t>
+  </si>
+  <si>
+    <t>6 + 2 онли дроп</t>
+  </si>
+  <si>
+    <t>1+1</t>
+  </si>
+  <si>
+    <t>2+1</t>
+  </si>
+  <si>
+    <t>3+1</t>
+  </si>
+  <si>
+    <t>4+1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -413,8 +578,17 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -517,6 +691,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF301"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE60000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -582,21 +768,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -672,7 +858,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -690,6 +876,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -698,6 +890,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFE60000"/>
+      <color rgb="FFFFF301"/>
       <color rgb="FFFF6600"/>
       <color rgb="FF33CC33"/>
       <color rgb="FF00FF00"/>
@@ -706,7 +900,6 @@
       <color rgb="FF26EB07"/>
       <color rgb="FF017A07"/>
       <color rgb="FF0ED44B"/>
-      <color rgb="FF14F058"/>
     </mruColors>
   </colors>
   <extLst>
@@ -984,23 +1177,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A3:J18"/>
+  <dimension ref="A3:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.109375" customWidth="1"/>
     <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="9.44140625" customWidth="1"/>
     <col min="6" max="6" width="13.5546875" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
@@ -1147,7 +1341,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1155,12 +1349,66 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="I22" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D23" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="I23" s="41" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Предметы.xlsx
+++ b/Предметы.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Chest Clicker RPG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Chest Clicker RPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AE7A35-039D-4781-87B1-02A929B92FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51138BBD-F256-4164-AA74-5F2EEF7A20D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2808" yWindow="3036" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5604" yWindow="2964" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Редкость" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -408,67 +406,6 @@
   </si>
   <si>
     <t>4+1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7</t>
-    </r>
   </si>
   <si>
     <r>
@@ -531,17 +468,72 @@
       <t>8</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,6</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -582,6 +574,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -770,19 +769,19 @@
   </cellStyleXfs>
   <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -858,12 +857,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -876,15 +881,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1180,7 +1179,7 @@
   <dimension ref="A3:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1381,10 +1380,10 @@
       <c r="G22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="39" t="s">
+      <c r="H22" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="I22" s="40" t="s">
+      <c r="I22" s="36" t="s">
         <v>115</v>
       </c>
       <c r="J22" s="4" t="s">
@@ -1392,27 +1391,28 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="E23" s="42" t="s">
+      <c r="E23" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="F23" s="42" t="s">
+      <c r="F23" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="G23" s="42" t="s">
+      <c r="G23" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="H23" s="41" t="s">
+      <c r="H23" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="I23" s="37" t="s">
         <v>124</v>
-      </c>
-      <c r="I23" s="41" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1428,40 +1428,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="2" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="38"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B4" s="8"/>
@@ -1580,79 +1580,79 @@
       <c r="I10" s="9"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B17" s="8"/>
